--- a/PS2_trolley_project/work_log.xlsx
+++ b/PS2_trolley_project/work_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajad\Documents\SajadhPersonal\git\Warangal\PS2_trolley_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4D614F-4D67-4FCF-BF61-395127E85930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54A7AB1-94B3-4037-BE74-E0684D7CA2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>#</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>testing for remote working</t>
+  </si>
+  <si>
+    <t>coding : receive button press-API</t>
+  </si>
+  <si>
+    <t>retrieve</t>
   </si>
 </sst>
 </file>
@@ -84,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +429,26 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45601</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PS2_trolley_project/work_log.xlsx
+++ b/PS2_trolley_project/work_log.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajad\Documents\SajadhPersonal\git\Warangal\PS2_trolley_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54A7AB1-94B3-4037-BE74-E0684D7CA2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B0EFDA-7685-4F64-921D-04BC0CE218DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -55,6 +64,12 @@
   </si>
   <si>
     <t>retrieve</t>
+  </si>
+  <si>
+    <t>coding : 3 motors fwd-rvs working with no speed control</t>
+  </si>
+  <si>
+    <t>coding</t>
   </si>
 </sst>
 </file>
@@ -374,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +404,7 @@
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -429,7 +444,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -447,6 +462,39 @@
       </c>
       <c r="F3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45615</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>SUM(F2:F10)</f>
+        <v>9.5</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <f>G11*F11</f>
+        <v>4750</v>
       </c>
     </row>
   </sheetData>

--- a/PS2_trolley_project/work_log.xlsx
+++ b/PS2_trolley_project/work_log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajad\Documents\SajadhPersonal\git\Warangal\PS2_trolley_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Git\Warangal\PS2_trolley_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B0EFDA-7685-4F64-921D-04BC0CE218DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186B0DAC-2A0C-4848-BD30-E2FE056DB39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>coding</t>
+  </si>
+  <si>
+    <t>coding and wiring for speed control+ test</t>
   </si>
 </sst>
 </file>
@@ -391,20 +394,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.28515625" customWidth="1"/>
-    <col min="4" max="4" width="64.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.26953125" customWidth="1"/>
+    <col min="4" max="4" width="64.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,7 +447,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -464,7 +467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -484,17 +487,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45616</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F11">
         <f>SUM(F2:F10)</f>
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="G11">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H11">
         <f>G11*F11</f>
-        <v>4750</v>
+        <v>7500</v>
       </c>
     </row>
   </sheetData>
